--- a/Hackrank SQL.xlsx
+++ b/Hackrank SQL.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idofa\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="10620"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>Question Name</t>
   </si>
@@ -191,74 +199,95 @@
   </si>
   <si>
     <t>ORDER BY GRADE DESC, NAME</t>
+  </si>
+  <si>
+    <t>select (salary * months)as earnings ,count(*) from employee group by 1 order by earnings desc limit 1;</t>
+  </si>
+  <si>
+    <t>Top Earners</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Comic Sans MS"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0E141E"/>
       <name val="Comic Sans MS"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-    </font>
-    <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Comic Sans MS"/>
     </font>
     <font>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Comic Sans MS"/>
     </font>
     <font>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color rgb="FF0E141E"/>
       <name val="Comic Sans MS"/>
     </font>
     <font>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <name val="Comic Sans MS"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0E141E"/>
       <name val="Comic Sans MS"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0E141E"/>
+      <name val="Constantia"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -302,186 +331,211 @@
         <bgColor rgb="FFA4C2F4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="37">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -492,11 +546,11 @@
     <xdr:ext cx="6324600" cy="2524125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="2" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -520,11 +574,11 @@
     <xdr:ext cx="7572375" cy="2990850"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="3" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -542,7 +596,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -732,24 +786,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="59.43"/>
-    <col customWidth="1" min="2" max="2" width="123.14"/>
+    <col min="1" max="1" width="59.44140625" customWidth="1"/>
+    <col min="2" max="2" width="123.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -765,7 +824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -773,7 +832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -781,7 +840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -789,7 +848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -797,7 +856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -808,7 +867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
@@ -819,7 +878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
@@ -830,7 +889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -841,7 +900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
@@ -852,7 +911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -860,7 +919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -868,7 +927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -876,7 +935,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
@@ -884,7 +943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
@@ -892,7 +951,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
@@ -900,7 +959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -908,127 +967,127 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="14"/>
-      <c r="B31" s="13"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="15" t="s">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="16"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="21"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="22"/>
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="13"/>
+    </row>
+    <row r="34" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="13"/>
+    </row>
+    <row r="35" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="13"/>
+    </row>
+    <row r="36" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
+      <c r="B36" s="13"/>
+    </row>
+    <row r="37" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="29"/>
+      <c r="B37" s="13"/>
+    </row>
+    <row r="38" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
+      <c r="B38" s="13"/>
+    </row>
+    <row r="39" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+      <c r="B39" s="13"/>
+    </row>
+    <row r="40" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="29"/>
+      <c r="B40" s="13"/>
+    </row>
+    <row r="41" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="29"/>
+      <c r="B41" s="13"/>
+    </row>
+    <row r="42" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="29"/>
+      <c r="B42" s="13"/>
+    </row>
+    <row r="43" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
+      <c r="B43" s="13"/>
+    </row>
+    <row r="44" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="29"/>
+      <c r="B44" s="13"/>
+    </row>
+    <row r="45" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="30"/>
+      <c r="B45" s="14"/>
+    </row>
+    <row r="46" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+    </row>
+    <row r="49" spans="1:3" ht="22.2" x14ac:dyDescent="0.5">
+      <c r="A49" s="16"/>
       <c r="C49" s="7"/>
     </row>
-    <row r="50">
-      <c r="A50" s="22" t="s">
+    <row r="50" spans="1:3" ht="22.2" x14ac:dyDescent="0.5">
+      <c r="A50" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -1038,148 +1097,169 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="23" t="s">
+    <row r="51" spans="1:3" ht="22.2" x14ac:dyDescent="0.5">
+      <c r="A51" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="23" t="s">
+      <c r="C51" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="22.2" x14ac:dyDescent="0.5">
+      <c r="A52" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="25" t="s">
+      <c r="C52" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="26" t="s">
+      <c r="C53" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="32"/>
+      <c r="B54" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="26" t="s">
+      <c r="C54" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="32"/>
+      <c r="B55" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="26" t="s">
+      <c r="C55" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="32"/>
+      <c r="B56" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" s="26" t="s">
+      <c r="C56" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="32"/>
+      <c r="B57" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58">
-      <c r="C58" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="C59" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="28" t="s">
+    <row r="58" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C58" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C59" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="29" t="s">
+      <c r="C60" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="32"/>
+      <c r="B61" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="29" t="s">
+      <c r="C61" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="32"/>
+      <c r="B62" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="29" t="s">
+      <c r="C62" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="32"/>
+      <c r="B63" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="32" t="s">
+      <c r="C63" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="33" t="s">
+      <c r="C65" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="32"/>
+      <c r="B66" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" s="33" t="s">
+      <c r="C66" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="32"/>
+      <c r="B67" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="33" t="s">
+      <c r="C67" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="32"/>
+      <c r="B68" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1191,6 +1271,8 @@
     <mergeCell ref="A60:A63"/>
     <mergeCell ref="A65:A68"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>